--- a/data/raw/election/voters-age-sex-education/2023/Kırıkkale.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kırıkkale.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="38">
   <si>
     <t>Kırıkkale</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>Yahşihan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -660,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -679,6 +686,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1008,10 +1024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58:K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,52 +1042,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2077,8 +2093,8 @@
       <c r="D30" s="5">
         <v>191</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.0640000000000001</v>
+      <c r="E30" s="7">
+        <v>1064</v>
       </c>
       <c r="F30" s="5">
         <v>657</v>
@@ -2086,8 +2102,8 @@
       <c r="G30" s="5">
         <v>879</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.736</v>
+      <c r="H30" s="7">
+        <v>1736</v>
       </c>
       <c r="I30" s="5">
         <v>801</v>
@@ -2101,15 +2117,15 @@
       <c r="L30" s="5">
         <v>22</v>
       </c>
-      <c r="M30" s="5">
-        <v>5.6550000000000002</v>
+      <c r="M30" s="7">
+        <v>5655</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3115,8 +3131,8 @@
       <c r="D56" s="5">
         <v>227</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.454</v>
+      <c r="E56" s="7">
+        <v>1454</v>
       </c>
       <c r="F56" s="5">
         <v>497</v>
@@ -3124,8 +3140,8 @@
       <c r="G56" s="5">
         <v>835</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.202</v>
+      <c r="H56" s="7">
+        <v>1202</v>
       </c>
       <c r="I56" s="5">
         <v>417</v>
@@ -3139,15 +3155,15 @@
       <c r="L56" s="5">
         <v>28</v>
       </c>
-      <c r="M56" s="5">
-        <v>4.891</v>
+      <c r="M56" s="7">
+        <v>4891</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3172,7 +3188,7 @@
       <c r="J57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="2" t="s">
@@ -3213,8 +3229,8 @@
       <c r="J58" s="4">
         <v>1</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>15</v>
+      <c r="K58" s="4">
+        <v>0</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>15</v>
@@ -3252,8 +3268,8 @@
       <c r="J59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K59" s="4" t="s">
-        <v>15</v>
+      <c r="K59" s="4">
+        <v>0</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>15</v>
@@ -3293,8 +3309,8 @@
       <c r="J60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K60" s="4" t="s">
-        <v>15</v>
+      <c r="K60" s="4">
+        <v>0</v>
       </c>
       <c r="L60" s="4">
         <v>2</v>
@@ -3332,8 +3348,8 @@
       <c r="J61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>15</v>
+      <c r="K61" s="4">
+        <v>0</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>15</v>
@@ -3373,8 +3389,8 @@
       <c r="J62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="4" t="s">
-        <v>15</v>
+      <c r="K62" s="4">
+        <v>0</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>15</v>
@@ -3412,8 +3428,8 @@
       <c r="J63" s="4">
         <v>2</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>15</v>
+      <c r="K63" s="4">
+        <v>0</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>15</v>
@@ -3453,8 +3469,8 @@
       <c r="J64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>15</v>
+      <c r="K64" s="4">
+        <v>0</v>
       </c>
       <c r="L64" s="4">
         <v>2</v>
@@ -3492,8 +3508,8 @@
       <c r="J65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>15</v>
+      <c r="K65" s="4">
+        <v>0</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>15</v>
@@ -3533,8 +3549,8 @@
       <c r="J66" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>15</v>
+      <c r="K66" s="4">
+        <v>0</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>15</v>
@@ -3572,8 +3588,8 @@
       <c r="J67" s="4">
         <v>1</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>15</v>
+      <c r="K67" s="4">
+        <v>0</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>15</v>
@@ -3613,8 +3629,8 @@
       <c r="J68" s="4">
         <v>1</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>15</v>
+      <c r="K68" s="4">
+        <v>0</v>
       </c>
       <c r="L68" s="4">
         <v>2</v>
@@ -3652,8 +3668,8 @@
       <c r="J69" s="4">
         <v>1</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>15</v>
+      <c r="K69" s="4">
+        <v>0</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>15</v>
@@ -3693,8 +3709,8 @@
       <c r="J70" s="4">
         <v>2</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>15</v>
+      <c r="K70" s="4">
+        <v>0</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>15</v>
@@ -3732,8 +3748,8 @@
       <c r="J71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="4" t="s">
-        <v>15</v>
+      <c r="K71" s="4">
+        <v>0</v>
       </c>
       <c r="L71" s="4">
         <v>1</v>
@@ -3773,8 +3789,8 @@
       <c r="J72" s="4">
         <v>3</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>15</v>
+      <c r="K72" s="4">
+        <v>0</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>15</v>
@@ -3812,8 +3828,8 @@
       <c r="J73" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>15</v>
+      <c r="K73" s="4">
+        <v>0</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>15</v>
@@ -3853,8 +3869,8 @@
       <c r="J74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K74" s="4" t="s">
-        <v>15</v>
+      <c r="K74" s="4">
+        <v>0</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>15</v>
@@ -3892,8 +3908,8 @@
       <c r="J75" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>15</v>
+      <c r="K75" s="4">
+        <v>0</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>15</v>
@@ -3933,8 +3949,8 @@
       <c r="J76" s="4">
         <v>1</v>
       </c>
-      <c r="K76" s="4" t="s">
-        <v>15</v>
+      <c r="K76" s="4">
+        <v>0</v>
       </c>
       <c r="L76" s="4">
         <v>1</v>
@@ -3972,8 +3988,8 @@
       <c r="J77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K77" s="4" t="s">
-        <v>15</v>
+      <c r="K77" s="4">
+        <v>0</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>15</v>
@@ -4013,8 +4029,8 @@
       <c r="J78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>15</v>
+      <c r="K78" s="4">
+        <v>0</v>
       </c>
       <c r="L78" s="4">
         <v>1</v>
@@ -4052,8 +4068,8 @@
       <c r="J79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K79" s="4" t="s">
-        <v>15</v>
+      <c r="K79" s="4">
+        <v>0</v>
       </c>
       <c r="L79" s="4">
         <v>1</v>
@@ -4093,8 +4109,8 @@
       <c r="J80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K80" s="4" t="s">
-        <v>15</v>
+      <c r="K80" s="4">
+        <v>0</v>
       </c>
       <c r="L80" s="4">
         <v>3</v>
@@ -4132,8 +4148,8 @@
       <c r="J81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="4" t="s">
-        <v>15</v>
+      <c r="K81" s="4">
+        <v>0</v>
       </c>
       <c r="L81" s="4">
         <v>2</v>
@@ -4171,21 +4187,21 @@
       <c r="J82" s="5">
         <v>12</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="4">
         <v>0</v>
       </c>
       <c r="L82" s="5">
         <v>15</v>
       </c>
-      <c r="M82" s="5">
-        <v>2.0369999999999999</v>
+      <c r="M82" s="7">
+        <v>2037</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -5191,17 +5207,17 @@
       <c r="D108" s="5">
         <v>607</v>
       </c>
-      <c r="E108" s="5">
-        <v>2.2909999999999999</v>
+      <c r="E108" s="7">
+        <v>2291</v>
       </c>
       <c r="F108" s="5">
         <v>473</v>
       </c>
-      <c r="G108" s="5">
-        <v>1.08</v>
-      </c>
-      <c r="H108" s="5">
-        <v>1.599</v>
+      <c r="G108" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H108" s="7">
+        <v>1599</v>
       </c>
       <c r="I108" s="5">
         <v>588</v>
@@ -5215,15 +5231,15 @@
       <c r="L108" s="5">
         <v>75</v>
       </c>
-      <c r="M108" s="5">
-        <v>7.3170000000000002</v>
+      <c r="M108" s="7">
+        <v>7317</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -6253,15 +6269,15 @@
       <c r="L134" s="5">
         <v>12</v>
       </c>
-      <c r="M134" s="5">
-        <v>2.3570000000000002</v>
+      <c r="M134" s="7">
+        <v>2357</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -7267,17 +7283,17 @@
       <c r="D160" s="5">
         <v>529</v>
       </c>
-      <c r="E160" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.071</v>
-      </c>
-      <c r="G160" s="5">
-        <v>1.837</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.9670000000000001</v>
+      <c r="E160" s="7">
+        <v>2960</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1071</v>
+      </c>
+      <c r="G160" s="7">
+        <v>1837</v>
+      </c>
+      <c r="H160" s="7">
+        <v>2967</v>
       </c>
       <c r="I160" s="5">
         <v>971</v>
@@ -7291,15 +7307,15 @@
       <c r="L160" s="5">
         <v>38</v>
       </c>
-      <c r="M160" s="5">
-        <v>11.363</v>
+      <c r="M160" s="7">
+        <v>11363</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7353,14 +7369,14 @@
       <c r="F162" s="4">
         <v>4</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.504</v>
-      </c>
-      <c r="H162" s="4">
-        <v>6.6619999999999999</v>
-      </c>
-      <c r="I162" s="4">
-        <v>1.099</v>
+      <c r="G162" s="8">
+        <v>1504</v>
+      </c>
+      <c r="H162" s="8">
+        <v>6662</v>
+      </c>
+      <c r="I162" s="8">
+        <v>1099</v>
       </c>
       <c r="J162" s="4">
         <v>9</v>
@@ -7371,8 +7387,8 @@
       <c r="L162" s="4">
         <v>45</v>
       </c>
-      <c r="M162" s="5">
-        <v>9.3770000000000007</v>
+      <c r="M162" s="7">
+        <v>9377</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7392,14 +7408,14 @@
       <c r="F163" s="4">
         <v>3</v>
       </c>
-      <c r="G163" s="4">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="H163" s="4">
-        <v>6.5579999999999998</v>
-      </c>
-      <c r="I163" s="4">
-        <v>1.7949999999999999</v>
+      <c r="G163" s="8">
+        <v>1308</v>
+      </c>
+      <c r="H163" s="8">
+        <v>6558</v>
+      </c>
+      <c r="I163" s="8">
+        <v>1795</v>
       </c>
       <c r="J163" s="4">
         <v>14</v>
@@ -7410,8 +7426,8 @@
       <c r="L163" s="4">
         <v>10</v>
       </c>
-      <c r="M163" s="5">
-        <v>9.8049999999999997</v>
+      <c r="M163" s="7">
+        <v>9805</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7436,11 +7452,11 @@
       <c r="G164" s="4">
         <v>824</v>
       </c>
-      <c r="H164" s="4">
-        <v>2.669</v>
-      </c>
-      <c r="I164" s="4">
-        <v>2.1480000000000001</v>
+      <c r="H164" s="8">
+        <v>2669</v>
+      </c>
+      <c r="I164" s="8">
+        <v>2148</v>
       </c>
       <c r="J164" s="4">
         <v>132</v>
@@ -7451,8 +7467,8 @@
       <c r="L164" s="4">
         <v>24</v>
       </c>
-      <c r="M164" s="5">
-        <v>5.883</v>
+      <c r="M164" s="7">
+        <v>5883</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7475,11 +7491,11 @@
       <c r="G165" s="4">
         <v>988</v>
       </c>
-      <c r="H165" s="4">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="I165" s="4">
-        <v>2.9460000000000002</v>
+      <c r="H165" s="8">
+        <v>1884</v>
+      </c>
+      <c r="I165" s="8">
+        <v>2946</v>
       </c>
       <c r="J165" s="4">
         <v>196</v>
@@ -7490,8 +7506,8 @@
       <c r="L165" s="4">
         <v>24</v>
       </c>
-      <c r="M165" s="5">
-        <v>6.2149999999999999</v>
+      <c r="M165" s="7">
+        <v>6215</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7516,11 +7532,11 @@
       <c r="G166" s="4">
         <v>492</v>
       </c>
-      <c r="H166" s="4">
-        <v>2.2839999999999998</v>
-      </c>
-      <c r="I166" s="4">
-        <v>2.1309999999999998</v>
+      <c r="H166" s="8">
+        <v>2284</v>
+      </c>
+      <c r="I166" s="8">
+        <v>2131</v>
       </c>
       <c r="J166" s="4">
         <v>228</v>
@@ -7531,8 +7547,8 @@
       <c r="L166" s="4">
         <v>23</v>
       </c>
-      <c r="M166" s="5">
-        <v>5.6619999999999999</v>
+      <c r="M166" s="7">
+        <v>5662</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7555,11 +7571,11 @@
       <c r="G167" s="4">
         <v>588</v>
       </c>
-      <c r="H167" s="4">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="I167" s="4">
-        <v>2.2029999999999998</v>
+      <c r="H167" s="8">
+        <v>2068</v>
+      </c>
+      <c r="I167" s="8">
+        <v>2203</v>
       </c>
       <c r="J167" s="4">
         <v>239</v>
@@ -7570,8 +7586,8 @@
       <c r="L167" s="4">
         <v>23</v>
       </c>
-      <c r="M167" s="5">
-        <v>6.1559999999999997</v>
+      <c r="M167" s="7">
+        <v>6156</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7596,11 +7612,11 @@
       <c r="G168" s="4">
         <v>467</v>
       </c>
-      <c r="H168" s="4">
-        <v>2.9180000000000001</v>
-      </c>
-      <c r="I168" s="4">
-        <v>2.0009999999999999</v>
+      <c r="H168" s="8">
+        <v>2918</v>
+      </c>
+      <c r="I168" s="8">
+        <v>2001</v>
       </c>
       <c r="J168" s="4">
         <v>289</v>
@@ -7611,8 +7627,8 @@
       <c r="L168" s="4">
         <v>22</v>
       </c>
-      <c r="M168" s="5">
-        <v>6.4809999999999999</v>
+      <c r="M168" s="7">
+        <v>6481</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7635,11 +7651,11 @@
       <c r="G169" s="4">
         <v>717</v>
       </c>
-      <c r="H169" s="4">
-        <v>2.399</v>
-      </c>
-      <c r="I169" s="4">
-        <v>1.675</v>
+      <c r="H169" s="8">
+        <v>2399</v>
+      </c>
+      <c r="I169" s="8">
+        <v>1675</v>
       </c>
       <c r="J169" s="4">
         <v>235</v>
@@ -7650,8 +7666,8 @@
       <c r="L169" s="4">
         <v>33</v>
       </c>
-      <c r="M169" s="5">
-        <v>6.649</v>
+      <c r="M169" s="7">
+        <v>6649</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7673,14 +7689,14 @@
       <c r="F170" s="4">
         <v>580</v>
       </c>
-      <c r="G170" s="4">
-        <v>1.014</v>
-      </c>
-      <c r="H170" s="4">
-        <v>2.9740000000000002</v>
-      </c>
-      <c r="I170" s="4">
-        <v>1.5349999999999999</v>
+      <c r="G170" s="8">
+        <v>1014</v>
+      </c>
+      <c r="H170" s="8">
+        <v>2974</v>
+      </c>
+      <c r="I170" s="8">
+        <v>1535</v>
       </c>
       <c r="J170" s="4">
         <v>313</v>
@@ -7691,8 +7707,8 @@
       <c r="L170" s="4">
         <v>21</v>
       </c>
-      <c r="M170" s="5">
-        <v>6.6689999999999996</v>
+      <c r="M170" s="7">
+        <v>6669</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7712,14 +7728,14 @@
       <c r="F171" s="4">
         <v>689</v>
       </c>
-      <c r="G171" s="4">
-        <v>1.4119999999999999</v>
-      </c>
-      <c r="H171" s="4">
-        <v>2.3570000000000002</v>
-      </c>
-      <c r="I171" s="4">
-        <v>1.2529999999999999</v>
+      <c r="G171" s="8">
+        <v>1412</v>
+      </c>
+      <c r="H171" s="8">
+        <v>2357</v>
+      </c>
+      <c r="I171" s="8">
+        <v>1253</v>
       </c>
       <c r="J171" s="4">
         <v>190</v>
@@ -7730,8 +7746,8 @@
       <c r="L171" s="4">
         <v>19</v>
       </c>
-      <c r="M171" s="5">
-        <v>6.9870000000000001</v>
+      <c r="M171" s="7">
+        <v>6987</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7756,11 +7772,11 @@
       <c r="G172" s="4">
         <v>926</v>
       </c>
-      <c r="H172" s="4">
-        <v>2.6840000000000002</v>
-      </c>
-      <c r="I172" s="4">
-        <v>1.536</v>
+      <c r="H172" s="8">
+        <v>2684</v>
+      </c>
+      <c r="I172" s="8">
+        <v>1536</v>
       </c>
       <c r="J172" s="4">
         <v>206</v>
@@ -7771,8 +7787,8 @@
       <c r="L172" s="4">
         <v>20</v>
       </c>
-      <c r="M172" s="5">
-        <v>6.2039999999999997</v>
+      <c r="M172" s="7">
+        <v>6204</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7786,17 +7802,17 @@
       <c r="D173" s="4">
         <v>32</v>
       </c>
-      <c r="E173" s="4">
-        <v>1.413</v>
+      <c r="E173" s="8">
+        <v>1413</v>
       </c>
       <c r="F173" s="4">
         <v>942</v>
       </c>
-      <c r="G173" s="4">
-        <v>1.454</v>
-      </c>
-      <c r="H173" s="4">
-        <v>1.79</v>
+      <c r="G173" s="8">
+        <v>1454</v>
+      </c>
+      <c r="H173" s="8">
+        <v>1790</v>
       </c>
       <c r="I173" s="4">
         <v>859</v>
@@ -7810,8 +7826,8 @@
       <c r="L173" s="4">
         <v>40</v>
       </c>
-      <c r="M173" s="5">
-        <v>6.665</v>
+      <c r="M173" s="7">
+        <v>6665</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7833,14 +7849,14 @@
       <c r="F174" s="4">
         <v>717</v>
       </c>
-      <c r="G174" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="H174" s="4">
-        <v>2.42</v>
-      </c>
-      <c r="I174" s="4">
-        <v>1.4530000000000001</v>
+      <c r="G174" s="8">
+        <v>1330</v>
+      </c>
+      <c r="H174" s="8">
+        <v>2420</v>
+      </c>
+      <c r="I174" s="8">
+        <v>1453</v>
       </c>
       <c r="J174" s="4">
         <v>180</v>
@@ -7851,8 +7867,8 @@
       <c r="L174" s="4">
         <v>26</v>
       </c>
-      <c r="M174" s="5">
-        <v>6.4649999999999999</v>
+      <c r="M174" s="7">
+        <v>6465</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7866,17 +7882,17 @@
       <c r="D175" s="4">
         <v>64</v>
       </c>
-      <c r="E175" s="4">
-        <v>2.133</v>
-      </c>
-      <c r="F175" s="4">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="G175" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="H175" s="4">
-        <v>1.3819999999999999</v>
+      <c r="E175" s="8">
+        <v>2133</v>
+      </c>
+      <c r="F175" s="8">
+        <v>1057</v>
+      </c>
+      <c r="G175" s="8">
+        <v>1460</v>
+      </c>
+      <c r="H175" s="8">
+        <v>1382</v>
       </c>
       <c r="I175" s="4">
         <v>510</v>
@@ -7890,8 +7906,8 @@
       <c r="L175" s="4">
         <v>49</v>
       </c>
-      <c r="M175" s="5">
-        <v>6.7519999999999998</v>
+      <c r="M175" s="7">
+        <v>6752</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7913,14 +7929,14 @@
       <c r="F176" s="4">
         <v>816</v>
       </c>
-      <c r="G176" s="4">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="H176" s="4">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="I176" s="4">
-        <v>1.19</v>
+      <c r="G176" s="8">
+        <v>1543</v>
+      </c>
+      <c r="H176" s="8">
+        <v>2277</v>
+      </c>
+      <c r="I176" s="8">
+        <v>1190</v>
       </c>
       <c r="J176" s="4">
         <v>122</v>
@@ -7931,8 +7947,8 @@
       <c r="L176" s="4">
         <v>34</v>
       </c>
-      <c r="M176" s="5">
-        <v>6.5960000000000001</v>
+      <c r="M176" s="7">
+        <v>6596</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7946,14 +7962,14 @@
       <c r="D177" s="4">
         <v>149</v>
       </c>
-      <c r="E177" s="4">
-        <v>2.9359999999999999</v>
+      <c r="E177" s="8">
+        <v>2936</v>
       </c>
       <c r="F177" s="4">
         <v>894</v>
       </c>
-      <c r="G177" s="4">
-        <v>1.226</v>
+      <c r="G177" s="8">
+        <v>1226</v>
       </c>
       <c r="H177" s="4">
         <v>994</v>
@@ -7970,8 +7986,8 @@
       <c r="L177" s="4">
         <v>45</v>
       </c>
-      <c r="M177" s="5">
-        <v>6.5910000000000002</v>
+      <c r="M177" s="7">
+        <v>6591</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -7993,11 +8009,11 @@
       <c r="F178" s="4">
         <v>506</v>
       </c>
-      <c r="G178" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="H178" s="4">
-        <v>2.161</v>
+      <c r="G178" s="8">
+        <v>1030</v>
+      </c>
+      <c r="H178" s="8">
+        <v>2161</v>
       </c>
       <c r="I178" s="4">
         <v>789</v>
@@ -8011,8 +8027,8 @@
       <c r="L178" s="4">
         <v>33</v>
       </c>
-      <c r="M178" s="5">
-        <v>5.56</v>
+      <c r="M178" s="7">
+        <v>5560</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8026,8 +8042,8 @@
       <c r="D179" s="4">
         <v>323</v>
       </c>
-      <c r="E179" s="4">
-        <v>3.3050000000000002</v>
+      <c r="E179" s="8">
+        <v>3305</v>
       </c>
       <c r="F179" s="4">
         <v>476</v>
@@ -8050,8 +8066,8 @@
       <c r="L179" s="4">
         <v>39</v>
       </c>
-      <c r="M179" s="5">
-        <v>5.718</v>
+      <c r="M179" s="7">
+        <v>5718</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8067,8 +8083,8 @@
       <c r="D180" s="4">
         <v>34</v>
       </c>
-      <c r="E180" s="4">
-        <v>1.29</v>
+      <c r="E180" s="8">
+        <v>1290</v>
       </c>
       <c r="F180" s="4">
         <v>257</v>
@@ -8076,8 +8092,8 @@
       <c r="G180" s="4">
         <v>758</v>
       </c>
-      <c r="H180" s="4">
-        <v>1.214</v>
+      <c r="H180" s="8">
+        <v>1214</v>
       </c>
       <c r="I180" s="4">
         <v>695</v>
@@ -8091,8 +8107,8 @@
       <c r="L180" s="4">
         <v>35</v>
       </c>
-      <c r="M180" s="5">
-        <v>4.3520000000000003</v>
+      <c r="M180" s="7">
+        <v>4352</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8106,8 +8122,8 @@
       <c r="D181" s="4">
         <v>475</v>
       </c>
-      <c r="E181" s="4">
-        <v>3.077</v>
+      <c r="E181" s="8">
+        <v>3077</v>
       </c>
       <c r="F181" s="4">
         <v>152</v>
@@ -8130,8 +8146,8 @@
       <c r="L181" s="4">
         <v>27</v>
       </c>
-      <c r="M181" s="5">
-        <v>4.766</v>
+      <c r="M181" s="7">
+        <v>4766</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8147,8 +8163,8 @@
       <c r="D182" s="4">
         <v>75</v>
       </c>
-      <c r="E182" s="4">
-        <v>1.3180000000000001</v>
+      <c r="E182" s="8">
+        <v>1318</v>
       </c>
       <c r="F182" s="4">
         <v>65</v>
@@ -8171,8 +8187,8 @@
       <c r="L182" s="4">
         <v>21</v>
       </c>
-      <c r="M182" s="5">
-        <v>3.0070000000000001</v>
+      <c r="M182" s="7">
+        <v>3007</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8186,8 +8202,8 @@
       <c r="D183" s="4">
         <v>637</v>
       </c>
-      <c r="E183" s="4">
-        <v>2.1539999999999999</v>
+      <c r="E183" s="8">
+        <v>2154</v>
       </c>
       <c r="F183" s="4">
         <v>41</v>
@@ -8210,8 +8226,8 @@
       <c r="L183" s="4">
         <v>28</v>
       </c>
-      <c r="M183" s="5">
-        <v>3.6859999999999999</v>
+      <c r="M183" s="7">
+        <v>3686</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8227,8 +8243,8 @@
       <c r="D184" s="4">
         <v>193</v>
       </c>
-      <c r="E184" s="4">
-        <v>1.919</v>
+      <c r="E184" s="8">
+        <v>1919</v>
       </c>
       <c r="F184" s="4">
         <v>35</v>
@@ -8251,8 +8267,8 @@
       <c r="L184" s="4">
         <v>36</v>
       </c>
-      <c r="M184" s="5">
-        <v>3.214</v>
+      <c r="M184" s="7">
+        <v>3214</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8260,14 +8276,14 @@
       <c r="B185" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="4">
-        <v>1.734</v>
+      <c r="C185" s="8">
+        <v>1734</v>
       </c>
       <c r="D185" s="4">
         <v>993</v>
       </c>
-      <c r="E185" s="4">
-        <v>1.8260000000000001</v>
+      <c r="E185" s="8">
+        <v>1826</v>
       </c>
       <c r="F185" s="4">
         <v>16</v>
@@ -8290,8 +8306,8 @@
       <c r="L185" s="4">
         <v>48</v>
       </c>
-      <c r="M185" s="5">
-        <v>4.8559999999999999</v>
+      <c r="M185" s="7">
+        <v>4856</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8299,29 +8315,29 @@
         <v>12</v>
       </c>
       <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>2.9350000000000001</v>
-      </c>
-      <c r="D186" s="5">
-        <v>3.4169999999999998</v>
-      </c>
-      <c r="E186" s="5">
-        <v>25.582999999999998</v>
-      </c>
-      <c r="F186" s="5">
-        <v>10.669</v>
-      </c>
-      <c r="G186" s="5">
-        <v>21.388000000000002</v>
-      </c>
-      <c r="H186" s="5">
-        <v>49.768999999999998</v>
-      </c>
-      <c r="I186" s="5">
-        <v>26.861000000000001</v>
-      </c>
-      <c r="J186" s="5">
-        <v>2.6589999999999998</v>
+      <c r="C186" s="7">
+        <v>2935</v>
+      </c>
+      <c r="D186" s="7">
+        <v>3417</v>
+      </c>
+      <c r="E186" s="7">
+        <v>25583</v>
+      </c>
+      <c r="F186" s="7">
+        <v>10669</v>
+      </c>
+      <c r="G186" s="7">
+        <v>21388</v>
+      </c>
+      <c r="H186" s="7">
+        <v>49769</v>
+      </c>
+      <c r="I186" s="7">
+        <v>26861</v>
+      </c>
+      <c r="J186" s="7">
+        <v>2659</v>
       </c>
       <c r="K186" s="5">
         <v>310</v>
@@ -8329,15 +8345,15 @@
       <c r="L186" s="5">
         <v>725</v>
       </c>
-      <c r="M186" s="5">
-        <v>144.316</v>
+      <c r="M186" s="7">
+        <v>144316</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -9343,8 +9359,8 @@
       <c r="D212" s="5">
         <v>375</v>
       </c>
-      <c r="E212" s="5">
-        <v>1.837</v>
+      <c r="E212" s="7">
+        <v>1837</v>
       </c>
       <c r="F212" s="5">
         <v>441</v>
@@ -9367,15 +9383,15 @@
       <c r="L212" s="5">
         <v>39</v>
       </c>
-      <c r="M212" s="5">
-        <v>5.2320000000000002</v>
+      <c r="M212" s="7">
+        <v>5232</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9432,8 +9448,8 @@
       <c r="G214" s="4">
         <v>175</v>
       </c>
-      <c r="H214" s="4">
-        <v>1.74</v>
+      <c r="H214" s="8">
+        <v>1740</v>
       </c>
       <c r="I214" s="4">
         <v>241</v>
@@ -9447,8 +9463,8 @@
       <c r="L214" s="4">
         <v>4</v>
       </c>
-      <c r="M214" s="5">
-        <v>2.1659999999999999</v>
+      <c r="M214" s="7">
+        <v>2166</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9486,8 +9502,8 @@
       <c r="L215" s="4">
         <v>1</v>
       </c>
-      <c r="M215" s="5">
-        <v>1.3959999999999999</v>
+      <c r="M215" s="7">
+        <v>1396</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9527,8 +9543,8 @@
       <c r="L216" s="4">
         <v>2</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.212</v>
+      <c r="M216" s="7">
+        <v>1212</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9566,8 +9582,8 @@
       <c r="L217" s="4">
         <v>5</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.0920000000000001</v>
+      <c r="M217" s="7">
+        <v>1092</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9607,8 +9623,8 @@
       <c r="L218" s="4">
         <v>6</v>
       </c>
-      <c r="M218" s="5">
-        <v>1.073</v>
+      <c r="M218" s="7">
+        <v>1073</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9646,8 +9662,8 @@
       <c r="L219" s="4">
         <v>6</v>
       </c>
-      <c r="M219" s="5">
-        <v>1.113</v>
+      <c r="M219" s="7">
+        <v>1113</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9687,8 +9703,8 @@
       <c r="L220" s="4">
         <v>2</v>
       </c>
-      <c r="M220" s="5">
-        <v>1.046</v>
+      <c r="M220" s="7">
+        <v>1046</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9726,8 +9742,8 @@
       <c r="L221" s="4">
         <v>3</v>
       </c>
-      <c r="M221" s="5">
-        <v>1</v>
+      <c r="M221" s="7">
+        <v>1000</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9767,8 +9783,8 @@
       <c r="L222" s="4">
         <v>2</v>
       </c>
-      <c r="M222" s="5">
-        <v>1.0089999999999999</v>
+      <c r="M222" s="7">
+        <v>1009</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9806,8 +9822,8 @@
       <c r="L223" s="4">
         <v>5</v>
       </c>
-      <c r="M223" s="5">
-        <v>1.026</v>
+      <c r="M223" s="7">
+        <v>1026</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -10381,23 +10397,23 @@
       <c r="D238" s="5">
         <v>259</v>
       </c>
-      <c r="E238" s="5">
-        <v>2.13</v>
+      <c r="E238" s="7">
+        <v>2130</v>
       </c>
       <c r="F238" s="5">
         <v>910</v>
       </c>
-      <c r="G238" s="5">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="H238" s="5">
-        <v>7.24</v>
-      </c>
-      <c r="I238" s="5">
-        <v>5.6559999999999997</v>
-      </c>
-      <c r="J238" s="5">
-        <v>1.0720000000000001</v>
+      <c r="G238" s="7">
+        <v>2045</v>
+      </c>
+      <c r="H238" s="7">
+        <v>7240</v>
+      </c>
+      <c r="I238" s="7">
+        <v>5656</v>
+      </c>
+      <c r="J238" s="7">
+        <v>1072</v>
       </c>
       <c r="K238" s="5">
         <v>220</v>
@@ -10405,8 +10421,18 @@
       <c r="L238" s="5">
         <v>89</v>
       </c>
-      <c r="M238" s="5">
-        <v>19.838999999999999</v>
+      <c r="M238" s="7">
+        <v>19839</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
